--- a/data/subtitles.xlsx
+++ b/data/subtitles.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="8_{5BD95C5B-B5FE-43AE-AAE7-14CFBAAD5F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{025A2BA7-3DA2-4E79-A059-B064F8681AB9}"/>
   <bookViews>
-    <workbookView xWindow="6105" yWindow="2880" windowWidth="19935" windowHeight="12300" xr2:uid="{45C893C2-06F0-41FD-AF92-AEC1E2F057F8}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15150" windowHeight="11505" xr2:uid="{45C893C2-06F0-41FD-AF92-AEC1E2F057F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3565,6 +3565,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3866,8 +3870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F53FE31-6EB6-4278-B451-3AD274568D5D}">
   <dimension ref="A1:B1155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="B435" sqref="B435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
